--- a/Analysis/figTbl_guidebook/tbl_pvERC.xlsx
+++ b/Analysis/figTbl_guidebook/tbl_pvERC.xlsx
@@ -219,7 +219,7 @@
         <v>-34.672882498397826</v>
       </c>
       <c r="L2" t="n">
-        <v>-7.147082925400627</v>
+        <v>-13.613290668907252</v>
       </c>
     </row>
     <row r="3">
@@ -257,7 +257,7 @@
         <v>-36.585965878090434</v>
       </c>
       <c r="L3" t="n">
-        <v>-9.691192059809577</v>
+        <v>-13.124547195962073</v>
       </c>
     </row>
     <row r="4">
@@ -295,7 +295,7 @@
         <v>-36.49131685168258</v>
       </c>
       <c r="L4" t="n">
-        <v>-12.081367972183166</v>
+        <v>-11.567027137612262</v>
       </c>
     </row>
     <row r="5">
@@ -333,7 +333,7 @@
         <v>-29.68457564897939</v>
       </c>
       <c r="L5" t="n">
-        <v>-12.998312630251903</v>
+        <v>-8.705518139597412</v>
       </c>
     </row>
     <row r="6">
@@ -371,7 +371,7 @@
         <v>-11.918349190737416</v>
       </c>
       <c r="L6" t="n">
-        <v>-13.928749570703697</v>
+        <v>-1.336862033597086</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +458,7 @@
         <v>-38.86967233695551</v>
       </c>
       <c r="L2" t="n">
-        <v>-17.52215414471847</v>
+        <v>-20.421180106816138</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>-35.74148058445682</v>
       </c>
       <c r="L3" t="n">
-        <v>-16.52932397377208</v>
+        <v>-18.002330808058638</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         <v>-29.41826996924511</v>
       </c>
       <c r="L4" t="n">
-        <v>-14.477364848415325</v>
+        <v>-14.316716249182381</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         <v>-21.20824589723044</v>
       </c>
       <c r="L5" t="n">
-        <v>-12.285156655951301</v>
+        <v>-12.626722370999898</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         <v>2.039811107908629</v>
       </c>
       <c r="L6" t="n">
-        <v>-13.348527215421496</v>
+        <v>-3.609838550652966</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/figTbl_guidebook/tbl_pvERC.xlsx
+++ b/Analysis/figTbl_guidebook/tbl_pvERC.xlsx
@@ -142,7 +142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,7 +219,7 @@
         <v>-34.672882498397826</v>
       </c>
       <c r="L2" t="n">
-        <v>-13.613290668907252</v>
+        <v>-13.425011624025345</v>
       </c>
     </row>
     <row r="3">
@@ -257,7 +257,7 @@
         <v>-36.585965878090434</v>
       </c>
       <c r="L3" t="n">
-        <v>-13.124547195962073</v>
+        <v>-12.444300712312028</v>
       </c>
     </row>
     <row r="4">
@@ -295,7 +295,7 @@
         <v>-36.49131685168258</v>
       </c>
       <c r="L4" t="n">
-        <v>-11.567027137612262</v>
+        <v>-10.901462620174312</v>
       </c>
     </row>
     <row r="5">
@@ -333,7 +333,7 @@
         <v>-29.68457564897939</v>
       </c>
       <c r="L5" t="n">
-        <v>-8.705518139597412</v>
+        <v>-7.646489363993291</v>
       </c>
     </row>
     <row r="6">
@@ -371,7 +371,7 @@
         <v>-11.918349190737416</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.336862033597086</v>
+        <v>-1.0531870573520952</v>
       </c>
     </row>
   </sheetData>
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +458,7 @@
         <v>-38.86967233695551</v>
       </c>
       <c r="L2" t="n">
-        <v>-20.421180106816138</v>
+        <v>-20.15713359428066</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>-35.74148058445682</v>
       </c>
       <c r="L3" t="n">
-        <v>-18.002330808058638</v>
+        <v>-17.226754581133356</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
         <v>-29.41826996924511</v>
       </c>
       <c r="L4" t="n">
-        <v>-14.316716249182381</v>
+        <v>-13.54864984128766</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         <v>-21.20824589723044</v>
       </c>
       <c r="L5" t="n">
-        <v>-12.626722370999898</v>
+        <v>-10.33776641864193</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         <v>2.039811107908629</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.609838550652966</v>
+        <v>-4.459986107743418</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/figTbl_guidebook/tbl_pvERC.xlsx
+++ b/Analysis/figTbl_guidebook/tbl_pvERC.xlsx
@@ -1,14 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim_riskSharing\Analysis\figTbl_guidebook\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812C48AF-642D-4AE5-B91C-4A3D6F068E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pvERC_15y" r:id="rId3" sheetId="1"/>
-    <sheet name="pvERC_30y" r:id="rId4" sheetId="2"/>
+    <sheet name="pvERC_15y" sheetId="1" r:id="rId1"/>
+    <sheet name="pvERC_30y" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -103,11 +111,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -119,7 +126,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -137,19 +144,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -184,211 +500,210 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
-        <v>147.0788662656317</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>147.07886626563169</v>
+      </c>
+      <c r="E2">
         <v>-3.8210879037799628</v>
       </c>
-      <c r="F2" t="n">
-        <v>-5.849605045972789</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-4.250723402557288</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-5.798986238396009</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="F2">
+        <v>-5.8496050459727886</v>
+      </c>
+      <c r="G2">
+        <v>-4.2507234025572878</v>
+      </c>
+      <c r="H2">
+        <v>-5.7989862383960089</v>
+      </c>
+      <c r="I2">
         <v>-15.17907286547357</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>-41.10268685583442</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>-34.672882498397826</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>-13.425011624025345</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>117.74197379207496</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-1.5936260602525454</v>
       </c>
-      <c r="F3" t="n">
-        <v>-6.313586475054988</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>-6.3135864750549882</v>
+      </c>
+      <c r="G3">
         <v>-1.9613000776723677</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>-3.381107745805334</v>
       </c>
-      <c r="I3" t="n">
-        <v>-6.503016467035716</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-37.38406172287472</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="I3">
+        <v>-6.5030164670357156</v>
+      </c>
+      <c r="J3">
+        <v>-37.384061722874719</v>
+      </c>
+      <c r="K3">
         <v>-36.585965878090434</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>-12.444300712312028</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>101.26058421325992</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.42531236636618175</v>
       </c>
-      <c r="F4" t="n">
-        <v>-6.428662716008004</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>-6.4286627160080041</v>
+      </c>
+      <c r="G4">
         <v>0.24089080889505565</v>
       </c>
-      <c r="H4" t="n">
-        <v>-1.128604291791807</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.5767323674901403</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="H4">
+        <v>-1.1286042917918071</v>
+      </c>
+      <c r="I4">
+        <v>0.57673236749014034</v>
+      </c>
+      <c r="J4">
         <v>-34.237838543670904</v>
       </c>
-      <c r="K4" t="n">
-        <v>-36.49131685168258</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="K4">
+        <v>-36.491316851682583</v>
+      </c>
+      <c r="L4">
         <v>-10.901462620174312</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="n">
-        <v>4.0</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
-        <v>80.2352984656932</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.553530059545639</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-5.467027260020529</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.494452558485295</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="D5">
+        <v>80.235298465693205</v>
+      </c>
+      <c r="E5">
+        <v>2.5535300595456389</v>
+      </c>
+      <c r="F5">
+        <v>-5.4670272600205294</v>
+      </c>
+      <c r="G5">
+        <v>3.4944525584852948</v>
+      </c>
+      <c r="H5">
         <v>1.3618522879102368</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>13.830016577437787</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>-30.802600067523084</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>-29.68457564897939</v>
       </c>
-      <c r="L5" t="n">
-        <v>-7.646489363993291</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="L5">
+        <v>-7.6464893639932914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="n">
-        <v>5.0</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>56.978080176592854</v>
       </c>
-      <c r="E6" t="n">
-        <v>4.286243112706778</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>4.2862431127067779</v>
+      </c>
+      <c r="F6">
         <v>-4.037358949212317</v>
       </c>
-      <c r="G6" t="n">
-        <v>9.09496110800756</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G6">
+        <v>9.0949611080075599</v>
+      </c>
+      <c r="H6">
         <v>1.8454513211015988</v>
       </c>
-      <c r="I6" t="n">
-        <v>39.88468247244042</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="I6">
+        <v>39.884682472440417</v>
+      </c>
+      <c r="J6">
         <v>-28.53495183829849</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>-11.918349190737416</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>-1.0531870573520952</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -423,197 +738,197 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="n">
-        <v>160.3867174682873</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>160.38671746828729</v>
+      </c>
+      <c r="E2">
         <v>-4.3520612914246914</v>
       </c>
-      <c r="F2" t="n">
-        <v>-7.933085128773227</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-3.460828095230445</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-4.009272511118556</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-20.25312787827344</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="F2">
+        <v>-7.9330851287732269</v>
+      </c>
+      <c r="G2">
+        <v>-3.4608280952304451</v>
+      </c>
+      <c r="H2">
+        <v>-4.0092725111185556</v>
+      </c>
+      <c r="I2">
+        <v>-20.253127878273439</v>
+      </c>
+      <c r="J2">
         <v>-40.840795222664596</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>-38.86967233695551</v>
       </c>
-      <c r="L2" t="n">
-        <v>-20.15713359428066</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="L2">
+        <v>-20.157133594280658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>123.55470409606934</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-2.9609486569006194</v>
       </c>
-      <c r="F3" t="n">
-        <v>-7.610735086895081</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-2.037866538760913</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="F3">
+        <v>-7.6107350868950814</v>
+      </c>
+      <c r="G3">
+        <v>-2.0378665387609129</v>
+      </c>
+      <c r="H3">
         <v>-1.9993537966025599</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>-11.385496524274508</v>
       </c>
-      <c r="J3" t="n">
-        <v>-37.82532029218052</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-35.74148058445682</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="J3">
+        <v>-37.825320292180521</v>
+      </c>
+      <c r="K3">
+        <v>-35.741480584456824</v>
+      </c>
+      <c r="L3">
         <v>-17.226754581133356</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="n">
-        <v>97.60649284562945</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1.466725538095437</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-6.400974782553148</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.3992640966720473</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.05707971960772218</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="D4">
+        <v>97.606492845629447</v>
+      </c>
+      <c r="E4">
+        <v>-1.4667255380954369</v>
+      </c>
+      <c r="F4">
+        <v>-6.4009747825531482</v>
+      </c>
+      <c r="G4">
+        <v>-0.39926409667204732</v>
+      </c>
+      <c r="H4">
+        <v>5.7079719607722179E-2</v>
+      </c>
+      <c r="I4">
         <v>-1.1198900177043447</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>-35.4720046565281</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>-29.41826996924511</v>
       </c>
-      <c r="L4" t="n">
-        <v>-13.54864984128766</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="L4">
+        <v>-13.548649841287659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="n">
-        <v>4.0</v>
+      <c r="B5">
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>77.65376992758442</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.7332519455431674</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-5.652855161404757</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E5">
+        <v>0.73325194554316742</v>
+      </c>
+      <c r="F5">
+        <v>-5.6528551614047569</v>
+      </c>
+      <c r="G5">
         <v>2.4822518273917904</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>1.9907858627643105</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>11.439457344538727</v>
       </c>
-      <c r="J5" t="n">
-        <v>-32.60880003738023</v>
-      </c>
-      <c r="K5" t="n">
-        <v>-21.20824589723044</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="J5">
+        <v>-32.608800037380227</v>
+      </c>
+      <c r="K5">
+        <v>-21.208245897230441</v>
+      </c>
+      <c r="L5">
         <v>-10.33776641864193</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="n">
-        <v>5.0</v>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="n">
-        <v>53.02018191880124</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.208680697867883</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-4.549870513812914</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.034840223660498</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.171911821322048</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="D6">
+        <v>53.020181918801242</v>
+      </c>
+      <c r="E6">
+        <v>3.2086806978678828</v>
+      </c>
+      <c r="F6">
+        <v>-4.5498705138129143</v>
+      </c>
+      <c r="G6">
+        <v>6.0348402236604981</v>
+      </c>
+      <c r="H6">
+        <v>2.1719118213220479</v>
+      </c>
+      <c r="I6">
         <v>39.985064690820224</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>-29.435155546449998</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>2.039811107908629</v>
       </c>
-      <c r="L6" t="n">
-        <v>-4.459986107743418</v>
+      <c r="L6">
+        <v>-4.4599861077434184</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>